--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,381 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>8.94257</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.003</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.30392</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00609</v>
-      </c>
-      <c r="F2" t="n">
-        <v>4.04499</v>
-      </c>
-      <c r="G2" t="n">
-        <v>10.95879</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.46773</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4.94938</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.73845</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.02976</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.38987</v>
-      </c>
-      <c r="M2" t="n">
-        <v>2.07661</v>
-      </c>
-      <c r="N2" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="O2" t="n">
-        <v>4.61264</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.8240499999999999</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>9.14063</v>
-      </c>
-      <c r="R2" t="n">
-        <v>5.8465</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>2.36081</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.0184</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.01981</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.69223</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1.59702</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>8.23629</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>15.90653</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>6.19336</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>1.52733</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.21342</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>189.68</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>16.81262</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>-0.00891</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>3.6188</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>12.38494</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>10.12168</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>1.3244</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>4.25355</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>9.66513</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1.7646</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>5.98091</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>1.02543</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>10.74839</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15.24115</v>
-      </c>
-      <c r="D3" t="n">
-        <v>4.00636</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.01118</v>
-      </c>
-      <c r="F3" t="n">
-        <v>6.72511</v>
-      </c>
-      <c r="G3" t="n">
-        <v>20.86863</v>
-      </c>
-      <c r="H3" t="n">
-        <v>2.87815</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7.53214</v>
-      </c>
-      <c r="J3" t="n">
-        <v>2.90523</v>
-      </c>
-      <c r="K3" t="n">
-        <v>12.10862</v>
-      </c>
-      <c r="L3" t="n">
-        <v>4.63741</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.9077</v>
-      </c>
-      <c r="N3" t="n">
-        <v>20.69421</v>
-      </c>
-      <c r="O3" t="n">
-        <v>4.89126</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1.30517</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>14.04759</v>
-      </c>
-      <c r="R3" t="n">
-        <v>8.49019</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="T3" t="n">
-        <v>3.4576</v>
-      </c>
-      <c r="U3" t="n">
-        <v>-0.01932</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.06754</v>
-      </c>
-      <c r="W3" t="n">
-        <v>1.69702</v>
-      </c>
-      <c r="X3" t="n">
-        <v>1.87366</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11.2855</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>25.30484</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>9.782690000000001</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.75068</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>0.0126</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>312.56</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>31.22029</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.19755</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>6.26295</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>18.728</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>19.04054</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>1.58012</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>6.81809</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>15.39409</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>3.86992</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>10.3607</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>1.87023</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>18.0113</v>
-      </c>
-      <c r="C4" t="n">
-        <v>23.83593</v>
-      </c>
-      <c r="D4" t="n">
-        <v>4.62818</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="F4" t="n">
-        <v>9.28497</v>
-      </c>
-      <c r="G4" t="n">
-        <v>34.87635</v>
-      </c>
-      <c r="H4" t="n">
-        <v>4.19012</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.43191</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4.55173</v>
-      </c>
-      <c r="K4" t="n">
-        <v>20.91025</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.66471</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6.12163</v>
-      </c>
-      <c r="N4" t="n">
-        <v>32.34151</v>
-      </c>
-      <c r="O4" t="n">
-        <v>7.0689</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.30281</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>21.70803</v>
-      </c>
-      <c r="R4" t="n">
-        <v>10.84153</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>5.21112</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.008109999999999999</v>
-      </c>
-      <c r="V4" t="n">
-        <v>-0.00603</v>
-      </c>
-      <c r="W4" t="n">
-        <v>3.60436</v>
-      </c>
-      <c r="X4" t="n">
-        <v>1.14521</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>17.90233</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>35.50337</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>18.51336</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>4.80153</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>490.23</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>51.26776</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.14085</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>10.23426</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>31.53089</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>30.84292</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>2.97283</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>10.0106</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>23.90619</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>5.77029</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>17.25146</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>2.84837</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
